--- a/Completed Projects/Visa KHI Fit Out Project DMC Karachi/Service reports.xlsx
+++ b/Completed Projects/Visa KHI Fit Out Project DMC Karachi/Service reports.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Visa KHI Fit Out Project DMC Karachi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC8320-A9E8-47C5-994C-DFE1D4CE30FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41BD6D5-4A0D-471C-89D0-419D1AFBEC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$6</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
   <si>
     <t>Fan coil unit.</t>
   </si>
@@ -45,9 +48,6 @@
     <t>Cleaning or replacing filters</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>Cleaning of Coils</t>
   </si>
   <si>
@@ -174,18 +174,12 @@
     <t>Use appropriate cleaning methods to avoid damaging the surfaces</t>
   </si>
   <si>
-    <t>Inspect and adjust dampers or vanes for proper positioning and airflow control.</t>
-  </si>
-  <si>
     <t>Verify that the adjustments align with the required airflow patterns</t>
   </si>
   <si>
     <t>Inspect seals and gaskets for any signs of wear or damage</t>
   </si>
   <si>
-    <t>Clear any obstructions or debris in the vicinity of air devices that may hinder airflow</t>
-  </si>
-  <si>
     <t>Ensure proper airflows and adjust dampers if needed.</t>
   </si>
   <si>
@@ -220,13 +214,73 @@
   </si>
   <si>
     <t>SERVICE REPORT FOR MAINTENANCE OF FOLLOWING HVAC EQUIPMENT</t>
+  </si>
+  <si>
+    <t>Cleaned</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>22 Set</t>
+  </si>
+  <si>
+    <t>23 C</t>
+  </si>
+  <si>
+    <t>22 C</t>
+  </si>
+  <si>
+    <t>No issue found</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>No vibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear any obstructions or debris in the vicinity of air devices </t>
+  </si>
+  <si>
+    <t>Inspect and adjust dampers or vanes for proper positioning &amp; airflow control.</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>___________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                         Witnessed By:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +312,27 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -298,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -318,14 +393,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -342,6 +435,595 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6162675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1370641</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3233D1B-6279-C491-4591-ED54D305056A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="95251"/>
+          <a:ext cx="1494466" cy="645150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>58410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51930B5-E393-BB84-57CB-C03F98C83198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="57150"/>
+          <a:ext cx="962025" cy="763260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99218</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3552824</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515C44D5-B4B4-153F-A90C-E645A213E8ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="248046" y="40459025"/>
+          <a:ext cx="4048919" cy="2932509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3720703</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B0D636-A0D9-CDBD-723D-366722F15BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4464844" y="40439975"/>
+          <a:ext cx="3884215" cy="2903933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3725012</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>29765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1309688</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1247F35-9991-EA4D-B6B7-9567FF6C1CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4469153" y="43447890"/>
+          <a:ext cx="3875144" cy="2956719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85650</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>57870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3533775</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>19844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9372DEFC-74D6-8A8A-D20C-E7E2817D5728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="234478" y="34238729"/>
+          <a:ext cx="4043438" cy="2978224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3710780</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>57548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1319609</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>38498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF68723-4AE2-CC79-0124-BF60BDD31B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4454921" y="34238407"/>
+          <a:ext cx="3899297" cy="2997200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>96723</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>99900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3532187</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3122E7F5-C106-0870-3FCE-5D746629F5D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="245551" y="37297009"/>
+          <a:ext cx="4030777" cy="2842135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3711424</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>106214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1309688</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>128984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888981C2-1B86-218E-3C44-5EEDCDBAA3DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4455565" y="37303323"/>
+          <a:ext cx="3888732" cy="2850505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3553222</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF4DC1A-1FE5-177A-2597-26938C748DD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="43456224"/>
+          <a:ext cx="4059238" cy="2987675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,965 +1289,1157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F95"/>
+  <dimension ref="A6:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A121" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="F142" sqref="F141:F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="95.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="3" max="3" width="94.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="17" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="2"/>
+    <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
+    <row r="18" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="9" t="s">
+    <row r="19" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3"/>
+    <row r="22" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+    <row r="23" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
         <v>6</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <v>7</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="D31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="29" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
-        <v>3</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="36" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
-        <v>3</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
-        <v>4</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="56" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+    <row r="55" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <v>13</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>14</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>15</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>16</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="3">
-        <v>1</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B60" s="3">
-        <v>2</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="3">
-        <v>3</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B62" s="3">
-        <v>4</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="3">
-        <v>5</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="70" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="2"/>
+    <row r="69" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>8</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="2"/>
+    <row r="71" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
+    <row r="72" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>10</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C76" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B73" s="3">
+      <c r="D76" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
         <v>1</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B74" s="3">
-        <v>2</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B75" s="3">
-        <v>3</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B76" s="3">
-        <v>4</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B77" s="3">
-        <v>5</v>
-      </c>
       <c r="C77" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="84" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
+    <row r="83" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>7</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>8</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>9</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>10</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C90" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B87" s="3">
+      <c r="D90" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
         <v>1</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B88" s="3">
-        <v>2</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B89" s="3">
-        <v>3</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B90" s="3">
-        <v>4</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B91" s="3">
-        <v>5</v>
-      </c>
       <c r="C91" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D92" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D93" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D94" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D95" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
+    <row r="96" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>6</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>7</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>8</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>9</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="101" spans="2:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="C101" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="12"/>
+    </row>
+    <row r="102" spans="2:6" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B70:D70"/>
+  <mergeCells count="9">
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B74:D74"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="55" max="16383" man="1"/>
+  <headerFooter>
+    <oddFooter>&amp;R
+Page &amp;Pof &amp;N</oddFooter>
+  </headerFooter>
+  <rowBreaks count="6" manualBreakCount="6">
+    <brk id="19" max="16383" man="1"/>
+    <brk id="32" max="16383" man="1"/>
+    <brk id="38" max="16383" man="1"/>
+    <brk id="58" max="3" man="1"/>
+    <brk id="73" max="16383" man="1"/>
+    <brk id="87" max="16383" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Completed Projects/Visa KHI Fit Out Project DMC Karachi/Service reports.xlsx
+++ b/Completed Projects/Visa KHI Fit Out Project DMC Karachi/Service reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Visa KHI Fit Out Project DMC Karachi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41BD6D5-4A0D-471C-89D0-419D1AFBEC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D1974D-A810-47B2-9038-13A342E48A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>Fan coil unit.</t>
   </si>
@@ -274,13 +274,16 @@
   </si>
   <si>
     <t xml:space="preserve">                                                         Witnessed By:</t>
+  </si>
+  <si>
+    <t>(From April 24 to June 24)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +340,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -373,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -396,20 +415,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,8 +430,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,14 +556,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>99218</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>67071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3552824</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -567,8 +592,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="248046" y="40459025"/>
-          <a:ext cx="4048919" cy="2932509"/>
+          <a:off x="248046" y="40210977"/>
+          <a:ext cx="4048919" cy="2800351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,14 +618,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3720703</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>48020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>170322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,8 +654,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4464844" y="40439975"/>
-          <a:ext cx="3884215" cy="2903933"/>
+          <a:off x="4464844" y="40191926"/>
+          <a:ext cx="3884215" cy="2761521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,14 +680,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3725012</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>29765</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>99216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1309688</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>69451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -691,8 +716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4469153" y="43447890"/>
-          <a:ext cx="3875144" cy="2956719"/>
+          <a:off x="4469153" y="43070857"/>
+          <a:ext cx="3875144" cy="2986485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -717,14 +742,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85650</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>57870</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>38929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3533775</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>19844</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>128985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -753,8 +778,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="234478" y="34238729"/>
-          <a:ext cx="4043438" cy="2978224"/>
+          <a:off x="234478" y="34527367"/>
+          <a:ext cx="4043438" cy="2729274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,14 +804,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3710780</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>57548</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1319609</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>38498</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>147133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -815,8 +840,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4454921" y="34238407"/>
-          <a:ext cx="3899297" cy="2997200"/>
+          <a:off x="4454921" y="34528125"/>
+          <a:ext cx="3899297" cy="2746664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -841,14 +866,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>96723</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>99900</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>179272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3532187</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>104640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -877,8 +902,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="245551" y="37297009"/>
-          <a:ext cx="4030777" cy="2842135"/>
+          <a:off x="245551" y="37386303"/>
+          <a:ext cx="4030777" cy="2753103"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,14 +928,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3711424</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>106214</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>185586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1309688</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>128984</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -939,8 +964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4455565" y="37303323"/>
-          <a:ext cx="3888732" cy="2850505"/>
+          <a:off x="4455565" y="37392617"/>
+          <a:ext cx="3888732" cy="2761211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -965,14 +990,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>89294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3553222</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>106406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1001,8 +1026,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="43456224"/>
-          <a:ext cx="4059238" cy="2987675"/>
+          <a:off x="238125" y="43060935"/>
+          <a:ext cx="4059238" cy="3033362"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:F106"/>
+  <dimension ref="A6:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A121" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="F142" sqref="F141:F142"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A103" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,67 +1325,67 @@
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="94.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D6" s="17">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>62</v>
@@ -1370,23 +1395,23 @@
     </row>
     <row r="13" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>63</v>
@@ -1396,196 +1421,196 @@
     </row>
     <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+    <row r="20" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>63</v>
+      <c r="B24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>64</v>
@@ -1593,55 +1618,55 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
+    <row r="32" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="2"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="2"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="1"/>
+      <c r="B36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>63</v>
@@ -1651,157 +1676,157 @@
     </row>
     <row r="38" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+    <row r="39" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="2"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="42" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="2"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="1"/>
+      <c r="B43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>63</v>
@@ -1811,157 +1836,157 @@
     </row>
     <row r="52" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
+    <row r="59" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>16</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="10"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="2"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="2"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="1"/>
+      <c r="B63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>64</v>
@@ -1971,10 +1996,10 @@
     </row>
     <row r="66" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>64</v>
@@ -1984,23 +2009,23 @@
     </row>
     <row r="67" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>63</v>
@@ -2010,49 +2035,49 @@
     </row>
     <row r="69" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>63</v>
@@ -2060,68 +2085,68 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+    <row r="73" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>10</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="10"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E77" s="1"/>
+      <c r="B77" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>63</v>
@@ -2131,10 +2156,10 @@
     </row>
     <row r="80" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>63</v>
@@ -2144,10 +2169,10 @@
     </row>
     <row r="81" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>63</v>
@@ -2157,23 +2182,23 @@
     </row>
     <row r="82" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>64</v>
@@ -2183,10 +2208,10 @@
     </row>
     <row r="84" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>64</v>
@@ -2196,10 +2221,10 @@
     </row>
     <row r="85" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>64</v>
@@ -2209,66 +2234,66 @@
     </row>
     <row r="86" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="15" t="s">
+    <row r="87" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>10</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="10"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="90" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E91" s="1"/>
+      <c r="B91" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>62</v>
@@ -2278,36 +2303,36 @@
     </row>
     <row r="93" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>74</v>
@@ -2317,10 +2342,10 @@
     </row>
     <row r="96" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>74</v>
@@ -2330,115 +2355,131 @@
     </row>
     <row r="97" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="101" spans="2:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="C101" s="12" t="s">
+    <row r="100" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>9</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="2:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="C102" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D101" s="12"/>
-    </row>
-    <row r="102" spans="2:6" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="11" t="s">
+      <c r="D102" s="13"/>
+    </row>
+    <row r="103" spans="2:6" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D103" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="2:6" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="11" t="s">
+    <row r="104" spans="2:6" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D104" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="2:6" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="11" t="s">
+    <row r="105" spans="2:6" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D105" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="2:6" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="11" t="s">
+    <row r="106" spans="2:6" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D106" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="2:6" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="11" t="s">
+    <row r="107" spans="2:6" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D107" s="12" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B74:D74"/>
+  <mergeCells count="10">
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R
 Page &amp;Pof &amp;N</oddFooter>
   </headerFooter>
-  <rowBreaks count="6" manualBreakCount="6">
-    <brk id="19" max="16383" man="1"/>
-    <brk id="32" max="16383" man="1"/>
-    <brk id="38" max="16383" man="1"/>
-    <brk id="58" max="3" man="1"/>
-    <brk id="73" max="16383" man="1"/>
-    <brk id="87" max="16383" man="1"/>
+  <rowBreaks count="7" manualBreakCount="7">
+    <brk id="20" max="16383" man="1"/>
+    <brk id="33" max="16383" man="1"/>
+    <brk id="39" max="16383" man="1"/>
+    <brk id="59" max="3" man="1"/>
+    <brk id="74" max="16383" man="1"/>
+    <brk id="88" max="16383" man="1"/>
+    <brk id="138" max="3" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
